--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_20000_0.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_20000_0.xlsx
@@ -630,7 +630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -646,7 +646,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,7 +662,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -726,7 +726,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -742,7 +742,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -774,7 +774,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -822,7 +822,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -854,7 +854,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">

--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_20000_0.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_20000_0.xlsx
@@ -630,7 +630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -662,7 +662,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -678,7 +678,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -742,7 +742,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -790,7 +790,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -806,7 +806,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -822,7 +822,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -838,7 +838,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -854,7 +854,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">
